--- a/app/data/templates/block_unit_price.xlsx
+++ b/app/data/templates/block_unit_price.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\synth\Desktop\works_env\21.Work_Streamlit\Sanbou_app\app\data\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FBB721-5DD0-43AE-812B-7A28B6F5FB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3911AECE-82F4-492F-8A09-2B3ADB227A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テンプレート" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +216,13 @@
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -520,7 +527,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -528,8 +535,11 @@
     <xf numFmtId="38" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -552,21 +562,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -582,9 +583,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -597,9 +595,6 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -615,6 +610,21 @@
     <xf numFmtId="4" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -624,23 +634,21 @@
     <xf numFmtId="3" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="40" fontId="3" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="3" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="3" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="3" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="桁区切り" xfId="3" builtinId="6"/>
     <cellStyle name="桁区切り 2" xfId="2" xr:uid="{5219AD92-793A-45AD-ACD0-27BACE715077}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{74AEA230-9D79-4DF2-932D-63AE985C4CB1}"/>
@@ -946,7 +954,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -985,188 +993,188 @@
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="15"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:7" ht="7.5" customHeight="1" thickBot="1">
       <c r="D5" s="2"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="19.5" customHeight="1" thickTop="1">
-      <c r="A7" s="33">
+      <c r="A7" s="25">
         <v>1</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="32"/>
     </row>
     <row r="8" spans="1:7" ht="19.5" customHeight="1">
-      <c r="A8" s="34">
+      <c r="A8" s="26">
         <v>2</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="8"/>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" spans="1:7" ht="19.5" customHeight="1">
-      <c r="A9" s="34">
+      <c r="A9" s="26">
         <v>3</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="8"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="1:7" ht="19.5" customHeight="1">
-      <c r="A10" s="34">
+      <c r="A10" s="26">
         <v>4</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="8"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:7" ht="19.5" customHeight="1">
-      <c r="A11" s="34">
+      <c r="A11" s="26">
         <v>5</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="9"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="1:7" ht="19.5" customHeight="1">
-      <c r="A12" s="34">
+      <c r="A12" s="26">
         <v>6</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="8"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="1:7" ht="19.5" customHeight="1">
-      <c r="A13" s="34">
+      <c r="A13" s="26">
         <v>7</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="8"/>
+      <c r="F13" s="33"/>
     </row>
     <row r="14" spans="1:7" ht="19.5" customHeight="1">
-      <c r="A14" s="35">
+      <c r="A14" s="27">
         <v>8</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="18"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="34"/>
     </row>
     <row r="15" spans="1:7" ht="19.5" customHeight="1">
-      <c r="A15" s="35">
+      <c r="A15" s="27">
         <v>9</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="18"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:7" ht="19.5" customHeight="1">
-      <c r="A16" s="35">
+      <c r="A16" s="27">
         <v>10</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="18"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="34"/>
     </row>
     <row r="17" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A17" s="35">
+      <c r="A17" s="27">
         <v>11</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="18"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="34"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A18" s="35">
+      <c r="A18" s="27">
         <v>12</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="18"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="34"/>
     </row>
     <row r="19" spans="1:6" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A19" s="36">
+      <c r="A19" s="28">
         <v>13</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="35"/>
     </row>
     <row r="20" spans="1:6" ht="5.25" customHeight="1" thickBot="1">
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="26"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="21"/>
     </row>
     <row r="21" spans="1:6" ht="18.75" customHeight="1" thickBot="1">
       <c r="D21" s="30" t="s">
         <v>3</v>
       </c>
       <c r="E21" s="31"/>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18.75" customHeight="1" thickBot="1">
-      <c r="D22" s="27">
+      <c r="D22" s="22">
         <f>SUM(D7:D19)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="19">
         <f>SUM(E7:E19)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="25" t="e">
+      <c r="F22" s="20" t="e">
         <f>E22/D22</f>
         <v>#DIV/0!</v>
       </c>
